--- a/PRISCILLA NJOROGE.xlsx
+++ b/PRISCILLA NJOROGE.xlsx
@@ -7638,7 +7638,7 @@
   <dimension ref="A2:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,11 +7810,12 @@
         <v>1800</v>
       </c>
       <c r="G9" s="16">
-        <v>300</v>
+        <f>300+300</f>
+        <v>600</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -8147,11 +8148,11 @@
       </c>
       <c r="G22" s="16">
         <f>SUM(G6:G21)</f>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="2"/>
-        <v>26750</v>
+        <v>26450</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="2"/>
@@ -8236,7 +8237,7 @@
       </c>
       <c r="F28" s="41">
         <f>G22</f>
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -8427,7 +8428,7 @@
       </c>
       <c r="F41" s="48">
         <f>F28+F29+F32+F31+F35-G33</f>
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="G41" s="48">
         <f>SUM(G35:G40)</f>
@@ -8435,7 +8436,7 @@
       </c>
       <c r="H41" s="48">
         <f>F41-G41</f>
-        <v>-11600</v>
+        <v>-11300</v>
       </c>
       <c r="I41" s="46"/>
     </row>

--- a/PRISCILLA NJOROGE.xlsx
+++ b/PRISCILLA NJOROGE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="155">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -480,9 +480,6 @@
     <t>NOV</t>
   </si>
   <si>
-    <t>KAVUVA NO.6 BAL OF 1500 TO BE PAID IN 2 INSTALLMENTS AS FROM JULY</t>
-  </si>
-  <si>
     <t>EVERYNE MWIKALI</t>
   </si>
   <si>
@@ -496,6 +493,12 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>KAVUVA NO.6 BAL OF 1500 TO BE PAID IN 2 INSTALLMENTS AS FROM NOV</t>
   </si>
 </sst>
 </file>
@@ -4899,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5821,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="45">
@@ -6734,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,7 +6953,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13">
         <v>6</v>
@@ -7143,7 +7146,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="13">
         <v>13</v>
@@ -7523,7 +7526,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="45">
@@ -7531,7 +7534,7 @@
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="45">
@@ -7620,7 +7623,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
@@ -7635,10 +7638,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I44"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,7 +7676,7 @@
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="52"/>
@@ -7731,10 +7734,12 @@
         <f>C6+D6+E6</f>
         <v>1500</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>1500</v>
+      </c>
       <c r="H6" s="17">
         <f t="shared" ref="H6:H20" si="0">F6-G6</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -7757,10 +7762,12 @@
         <f t="shared" ref="F7:F21" si="1">C7+D7+E7</f>
         <v>2100</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <v>1000</v>
+      </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -7810,12 +7817,12 @@
         <v>1800</v>
       </c>
       <c r="G9" s="16">
-        <f>300+300</f>
-        <v>600</v>
+        <f>300+300+100+200+100</f>
+        <v>1000</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -7838,16 +7845,19 @@
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <f>1000+500</f>
+        <v>1500</v>
+      </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="13">
         <v>6</v>
@@ -7938,17 +7948,15 @@
         <f>'NOVEMBER 21'!H14:H29</f>
         <v>1500</v>
       </c>
-      <c r="E14" s="18">
-        <v>1500</v>
-      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="16">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -7971,10 +7979,12 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>500</v>
+      </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -7997,14 +8007,16 @@
         <f t="shared" si="1"/>
         <v>1550</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16">
+        <v>500</v>
+      </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>1050</v>
       </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>141</v>
       </c>
@@ -8023,16 +8035,18 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16">
+        <v>1500</v>
+      </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="13">
         <v>13</v>
@@ -8049,33 +8063,39 @@
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16">
+        <v>1500</v>
+      </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>124</v>
+      </c>
       <c r="B19" s="13">
         <v>14</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18">
+        <v>1500</v>
+      </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>87</v>
       </c>
@@ -8094,14 +8114,16 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <v>1500</v>
+      </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>85</v>
       </c>
@@ -8125,7 +8147,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
@@ -8148,18 +8170,18 @@
       </c>
       <c r="G22" s="16">
         <f>SUM(G6:G21)</f>
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" si="2"/>
-        <v>26450</v>
+        <v>16550</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="15">
         <f>'SEPTEMBER 21'!H23:H39</f>
         <v>0</v>
@@ -8167,7 +8189,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -8179,8 +8201,12 @@
       <c r="G25" s="35"/>
       <c r="H25" s="37"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="31">
+        <f>E22</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>14</v>
       </c>
@@ -8194,8 +8220,12 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="47">
+        <f>C33</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
         <v>15</v>
       </c>
@@ -8221,8 +8251,12 @@
         <v>18</v>
       </c>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="31">
+        <f>J25-J26</f>
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>68</v>
       </c>
@@ -8237,13 +8271,16 @@
       </c>
       <c r="F28" s="41">
         <f>G22</f>
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>19</v>
       </c>
@@ -8263,8 +8300,12 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="31">
+        <f>J27-J28</f>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>9</v>
       </c>
@@ -8279,7 +8320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="41"/>
       <c r="C31" s="29"/>
@@ -8290,7 +8331,7 @@
       <c r="H31" s="29"/>
       <c r="I31" s="37"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="41"/>
       <c r="C32" s="29"/>
@@ -8366,11 +8407,19 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="29">
+        <v>17400</v>
+      </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="43"/>
-      <c r="G37" s="29"/>
+      <c r="E37" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="29">
+        <v>17400</v>
+      </c>
       <c r="H37" s="29"/>
       <c r="I37" s="37"/>
     </row>
@@ -8417,26 +8466,26 @@
       </c>
       <c r="C41" s="48">
         <f>SUM(C35:C40)</f>
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="D41" s="48">
         <f>B41-C41</f>
-        <v>16650</v>
+        <v>-750</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="48">
         <f>F28+F29+F32+F31+F35-G33</f>
-        <v>-11300</v>
+        <v>-1400</v>
       </c>
       <c r="G41" s="48">
         <f>SUM(G35:G40)</f>
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="H41" s="48">
         <f>F41-G41</f>
-        <v>-11300</v>
+        <v>-18800</v>
       </c>
       <c r="I41" s="46"/>
     </row>
@@ -8476,7 +8525,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
